--- a/resources/experiment 2/metrics/MAPE/incidence/Infarto de Miocardio (INC).xlsx
+++ b/resources/experiment 2/metrics/MAPE/incidence/Infarto de Miocardio (INC).xlsx
@@ -468,7 +468,7 @@
         <v>4295817605612846</v>
       </c>
       <c r="D2" t="n">
-        <v>4295817605612846</v>
+        <v>4295817605612844</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6138988796827.091</v>
+        <v>1906012792656540</v>
       </c>
       <c r="C3" t="n">
-        <v>6138988796827.091</v>
+        <v>1965915881649015</v>
       </c>
       <c r="D3" t="n">
-        <v>6138988796827.091</v>
+        <v>3349012352411412</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>497301517253725.3</v>
+        <v>2797304703862.46</v>
       </c>
       <c r="C4" t="n">
-        <v>497290768081474</v>
+        <v>2696839752985.547</v>
       </c>
       <c r="D4" t="n">
-        <v>497290768081474</v>
+        <v>3731142307353348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415044787906832.8</v>
+        <v>381527936937814</v>
       </c>
       <c r="C5" t="n">
-        <v>415044787906832.8</v>
+        <v>189380362403604.7</v>
       </c>
       <c r="D5" t="n">
-        <v>415044787906832.8</v>
+        <v>531606690727632.8</v>
       </c>
     </row>
   </sheetData>
